--- a/reports/air_import_employee_kpis/Aleyna BASAR.xlsx
+++ b/reports/air_import_employee_kpis/Aleyna BASAR.xlsx
@@ -513,31 +513,31 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>2721</v>
+        <v>2727</v>
       </c>
       <c r="F2" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G2" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H2" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I2" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J2" t="n">
         <v>55</v>
       </c>
       <c r="K2" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -558,31 +558,31 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7366.2</v>
+        <v>7366</v>
       </c>
       <c r="F3" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G3" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H3" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I3" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J3" t="n">
         <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
@@ -603,31 +603,31 @@
         <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>21967.79</v>
+        <v>22084</v>
       </c>
       <c r="F4" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G4" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H4" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I4" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J4" t="n">
         <v>55</v>
       </c>
       <c r="K4" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
@@ -651,28 +651,28 @@
         <v>19681</v>
       </c>
       <c r="F5" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G5" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H5" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I5" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J5" t="n">
         <v>55</v>
       </c>
       <c r="K5" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6">
@@ -693,31 +693,31 @@
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>22477.7</v>
+        <v>22479</v>
       </c>
       <c r="F6" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G6" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H6" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I6" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J6" t="n">
         <v>55</v>
       </c>
       <c r="K6" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
@@ -738,31 +738,31 @@
         <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>5982.5</v>
+        <v>6303</v>
       </c>
       <c r="F7" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G7" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H7" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I7" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J7" t="n">
         <v>55</v>
       </c>
       <c r="K7" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
@@ -783,31 +783,31 @@
         <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>15308.3</v>
+        <v>15313</v>
       </c>
       <c r="F8" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G8" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H8" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I8" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J8" t="n">
         <v>55</v>
       </c>
       <c r="K8" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
@@ -828,31 +828,31 @@
         <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>14285.36</v>
+        <v>15389</v>
       </c>
       <c r="F9" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G9" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H9" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I9" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J9" t="n">
         <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
@@ -873,31 +873,31 @@
         <v>37</v>
       </c>
       <c r="E10" t="n">
-        <v>45619.4</v>
+        <v>45746</v>
       </c>
       <c r="F10" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G10" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H10" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I10" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J10" t="n">
         <v>55</v>
       </c>
       <c r="K10" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
@@ -918,31 +918,31 @@
         <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>15794.74</v>
+        <v>16463</v>
       </c>
       <c r="F11" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G11" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H11" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I11" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J11" t="n">
         <v>55</v>
       </c>
       <c r="K11" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -963,31 +963,31 @@
         <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>19868.2</v>
+        <v>20338</v>
       </c>
       <c r="F12" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G12" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H12" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I12" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J12" t="n">
         <v>55</v>
       </c>
       <c r="K12" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13">
@@ -1008,31 +1008,31 @@
         <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>14586.7</v>
+        <v>14686</v>
       </c>
       <c r="F13" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G13" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H13" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I13" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J13" t="n">
         <v>55</v>
       </c>
       <c r="K13" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
@@ -1053,31 +1053,31 @@
         <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>26351.54</v>
+        <v>26481</v>
       </c>
       <c r="F14" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G14" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H14" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I14" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J14" t="n">
         <v>55</v>
       </c>
       <c r="K14" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15">
@@ -1098,31 +1098,31 @@
         <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="F15" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G15" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H15" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I15" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J15" t="n">
         <v>55</v>
       </c>
       <c r="K15" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
@@ -1143,31 +1143,31 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>13717</v>
+        <v>15331</v>
       </c>
       <c r="F16" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G16" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H16" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I16" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J16" t="n">
         <v>55</v>
       </c>
       <c r="K16" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17">
@@ -1188,31 +1188,31 @@
         <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>20586.2</v>
+        <v>20617</v>
       </c>
       <c r="F17" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G17" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H17" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I17" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J17" t="n">
         <v>55</v>
       </c>
       <c r="K17" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18">
@@ -1233,31 +1233,31 @@
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
       <c r="F18" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G18" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H18" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I18" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J18" t="n">
         <v>55</v>
       </c>
       <c r="K18" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19">
@@ -1278,31 +1278,31 @@
         <v>28</v>
       </c>
       <c r="E19" t="n">
-        <v>11540.38</v>
+        <v>13100</v>
       </c>
       <c r="F19" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G19" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H19" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I19" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J19" t="n">
         <v>55</v>
       </c>
       <c r="K19" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20">
@@ -1320,34 +1320,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>23048.65</v>
+        <v>22767</v>
       </c>
       <c r="F20" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G20" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H20" t="n">
-        <v>25.84210526315789</v>
+        <v>25.78947368421053</v>
       </c>
       <c r="I20" t="n">
-        <v>18718.10315789474</v>
+        <v>19282.10526315789</v>
       </c>
       <c r="J20" t="n">
         <v>55</v>
       </c>
       <c r="K20" t="n">
-        <v>54484.1</v>
+        <v>59232</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/reports/air_import_employee_kpis/Aleyna BASAR.xlsx
+++ b/reports/air_import_employee_kpis/Aleyna BASAR.xlsx
@@ -516,10 +516,10 @@
         <v>2727</v>
       </c>
       <c r="F2" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G2" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H2" t="n">
         <v>25.78947368421053</v>
@@ -561,10 +561,10 @@
         <v>7366</v>
       </c>
       <c r="F3" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G3" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H3" t="n">
         <v>25.78947368421053</v>
@@ -606,10 +606,10 @@
         <v>22084</v>
       </c>
       <c r="F4" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G4" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H4" t="n">
         <v>25.78947368421053</v>
@@ -651,10 +651,10 @@
         <v>19681</v>
       </c>
       <c r="F5" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G5" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H5" t="n">
         <v>25.78947368421053</v>
@@ -696,10 +696,10 @@
         <v>22479</v>
       </c>
       <c r="F6" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G6" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H6" t="n">
         <v>25.78947368421053</v>
@@ -741,10 +741,10 @@
         <v>6303</v>
       </c>
       <c r="F7" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G7" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H7" t="n">
         <v>25.78947368421053</v>
@@ -786,10 +786,10 @@
         <v>15313</v>
       </c>
       <c r="F8" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G8" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H8" t="n">
         <v>25.78947368421053</v>
@@ -831,10 +831,10 @@
         <v>15389</v>
       </c>
       <c r="F9" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G9" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H9" t="n">
         <v>25.78947368421053</v>
@@ -876,10 +876,10 @@
         <v>45746</v>
       </c>
       <c r="F10" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G10" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H10" t="n">
         <v>25.78947368421053</v>
@@ -921,10 +921,10 @@
         <v>16463</v>
       </c>
       <c r="F11" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G11" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H11" t="n">
         <v>25.78947368421053</v>
@@ -966,10 +966,10 @@
         <v>20338</v>
       </c>
       <c r="F12" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G12" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H12" t="n">
         <v>25.78947368421053</v>
@@ -1011,10 +1011,10 @@
         <v>14686</v>
       </c>
       <c r="F13" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G13" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H13" t="n">
         <v>25.78947368421053</v>
@@ -1056,10 +1056,10 @@
         <v>26481</v>
       </c>
       <c r="F14" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G14" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H14" t="n">
         <v>25.78947368421053</v>
@@ -1101,10 +1101,10 @@
         <v>59232</v>
       </c>
       <c r="F15" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G15" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H15" t="n">
         <v>25.78947368421053</v>
@@ -1146,10 +1146,10 @@
         <v>15331</v>
       </c>
       <c r="F16" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G16" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H16" t="n">
         <v>25.78947368421053</v>
@@ -1191,10 +1191,10 @@
         <v>20617</v>
       </c>
       <c r="F17" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G17" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H17" t="n">
         <v>25.78947368421053</v>
@@ -1236,10 +1236,10 @@
         <v>257</v>
       </c>
       <c r="F18" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G18" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H18" t="n">
         <v>25.78947368421053</v>
@@ -1281,10 +1281,10 @@
         <v>13100</v>
       </c>
       <c r="F19" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G19" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H19" t="n">
         <v>25.78947368421053</v>
@@ -1326,10 +1326,10 @@
         <v>22767</v>
       </c>
       <c r="F20" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G20" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H20" t="n">
         <v>25.78947368421053</v>
